--- a/APM files/139882175/Book1.xlsx
+++ b/APM files/139882175/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/139882175/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8719AA1E-33A8-744C-AE9D-44D691A9352A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D64CAEF-8E1C-3F42-B4DD-2D1C8A1B831B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{DA54D918-C7F5-B74E-AD3F-0F471CBCCC3E}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
